--- a/TouchGFX/lab_touchgfx/assets/texts/texts.xlsx
+++ b/TouchGFX/lab_touchgfx/assets/texts/texts.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\!devel\app\template\EmptyApplication\assets\texts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Build\GitHub\Lab\TouchGFX\lab_touchgfx\assets\texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Font</t>
   </si>
@@ -140,13 +140,44 @@
   </si>
   <si>
     <t>0x22EF</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>&lt;value&gt; %</t>
+  </si>
+  <si>
+    <t>MCU load</t>
+  </si>
+  <si>
+    <t>Base_View_Mcu_Load_Value</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_View_Mcu_Load_text</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseView_McuLoad_Text</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseView_McuLoad_Text</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotoCondensed-Regular.ttf</t>
+  </si>
+  <si>
+    <t>0-9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -180,7 +211,7 @@
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,6 +234,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -476,7 +513,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -515,9 +552,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="81">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1"/>
     <cellStyle name="Normal 10 2" xfId="2"/>
     <cellStyle name="Normal 11" xfId="3"/>
@@ -598,6 +637,7 @@
     <cellStyle name="Normal 7" xfId="78"/>
     <cellStyle name="Normal 8" xfId="79"/>
     <cellStyle name="Normal 9" xfId="80"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -1296,36 +1336,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.265625" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1328125" customWidth="1"/>
+    <col min="10" max="10" width="4.59765625" customWidth="1"/>
+    <col min="11" max="11" width="20.1328125" customWidth="1"/>
+    <col min="12" max="12" width="84.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
@@ -1337,7 +1377,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1403,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
       <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
@@ -1380,7 +1436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1395,7 +1451,7 @@
       </c>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K6" s="8" t="s">
         <v>2</v>
       </c>
@@ -1410,7 +1466,7 @@
       </c>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1442,7 +1498,7 @@
       </c>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1459,7 +1515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K10" s="12" t="s">
         <v>36</v>
       </c>
@@ -1474,10 +1530,10 @@
       </c>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="L12" s="17" t="s">
         <v>35</v>
       </c>
@@ -1487,6 +1543,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1501,21 +1558,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J799"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.265625" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.73046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.73046875" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.73046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -1525,7 +1582,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1566,2389 +1623,2411 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="2"/>
       <c r="D6"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D8"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D9"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D10"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D13"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D14"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D15"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D20"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D25"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D38"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D39"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D41"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D42"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D43"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D44"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D45"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D46"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D47"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D50"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D53"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D54"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D61"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D62"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D63"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D64"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D65"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D66"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D67"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D68"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D69"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D70"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D71"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D72"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D73"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D74"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D75"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D76"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D77"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D78"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D79"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D80"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D81"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D82"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D83"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D84"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D85"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D86"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D87"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D88"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D89"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D90"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D91"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D92"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D93"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D94"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D95"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D96"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D97"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D98"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D99"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D100"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D101"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D102"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D103"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D104"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D105"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D106"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D107"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D108"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D109"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D110"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D111"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D112"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D113"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D114"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D115"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D116"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D117"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D118"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D119"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D120"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D121"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D122"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D123"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D124"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D125"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D126"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D127"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D128"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D129"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D130"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D131"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D132"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D133"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D134"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D135"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D136"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D137"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D138"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D139"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D140"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D141"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D142"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D143"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D144"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D145"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D146"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D147"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D148"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D149"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D150"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D151"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D152"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D153"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D154"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D155"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D156"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D157"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D158"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D159"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D160"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D161"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D162"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D163"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D164"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D165"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D166"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D167"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D168"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D169"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D170"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D171"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D172"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D173"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D174"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D175"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D176"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D177"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D178"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D179"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D180"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D181"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D182"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D183"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D184"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D185"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D186"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D187"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D188"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D189"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D190"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D191"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D192"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D193"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D194"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D195"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D196"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D197"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D198"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D199"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D200"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D201"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D202"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D203"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D204"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D205"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D206"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D207"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D208"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D209"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D210"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D211"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D212"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D213"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D214"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D215"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D216"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D217"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D218"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D219"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D220"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D221"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D222"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D223"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D224"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D225"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D226"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D227"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D228"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D229"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D230"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D231"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D232"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D233"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D234"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D235"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D236"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D237"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D238"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D239"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D240"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D241"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D242"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D243"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D244"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D245"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D246"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D247"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D248"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D249"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D250"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D251"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D252"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D253"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D254"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D255"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D256"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D257"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D258"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D259"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D260"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D261"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D262"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D263"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D264"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D265"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D266"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D267"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D268"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D269"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D270"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D271"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D272"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D273"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D274"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D275"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D276"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D277"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D278"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D279"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D280"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D281"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D282"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D283"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D284"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D285"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D286"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D287"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D288"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D289"/>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D290"/>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D291"/>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D292"/>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D293"/>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D294"/>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D295"/>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D296"/>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D297"/>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D298"/>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D299"/>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D300"/>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D301"/>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D302"/>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D303"/>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D304"/>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D305"/>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D306"/>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D307"/>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D308"/>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D309"/>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D310"/>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D311"/>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D312"/>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D313"/>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D314"/>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D315"/>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D316"/>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D317"/>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D318"/>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D319"/>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D320"/>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D321"/>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D322"/>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D323"/>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D324"/>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D325"/>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D326"/>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D327"/>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D328"/>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D329"/>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D330"/>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D331"/>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D332"/>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D333"/>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D334"/>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D335"/>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D336"/>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D337"/>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D338"/>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D339"/>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D340"/>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D341"/>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D342"/>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D343"/>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D344"/>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D345"/>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D346"/>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D347"/>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D348"/>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D349"/>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D350"/>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D351"/>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D352"/>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D353"/>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D354"/>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D355"/>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D356"/>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D357"/>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D358"/>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D359"/>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D360"/>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D361"/>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D362"/>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D363"/>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D364"/>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D365"/>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D366"/>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D367"/>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D368"/>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D369"/>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D370"/>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D371"/>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D372"/>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D373"/>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D374"/>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D375"/>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D376"/>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D377"/>
     </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D378"/>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D379"/>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D380"/>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D381"/>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D382"/>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D383"/>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D384"/>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D385"/>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D386"/>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D387"/>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D388"/>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D389"/>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D390"/>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D391"/>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D392"/>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D393"/>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D394"/>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D395"/>
     </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D396"/>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D397"/>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D398"/>
     </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D399"/>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D400"/>
     </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D401"/>
     </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D402"/>
     </row>
-    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D403"/>
     </row>
-    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D404"/>
     </row>
-    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D405"/>
     </row>
-    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D406"/>
     </row>
-    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D407"/>
     </row>
-    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D408"/>
     </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D409"/>
     </row>
-    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D410"/>
     </row>
-    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D411"/>
     </row>
-    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D412"/>
     </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D413"/>
     </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D414"/>
     </row>
-    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D415"/>
     </row>
-    <row r="416" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D416"/>
     </row>
-    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D417"/>
     </row>
-    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D418"/>
     </row>
-    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D419"/>
     </row>
-    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D420"/>
     </row>
-    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D421"/>
     </row>
-    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D422"/>
     </row>
-    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D423"/>
     </row>
-    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D424"/>
     </row>
-    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D425"/>
     </row>
-    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D426"/>
     </row>
-    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D427"/>
     </row>
-    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D428"/>
     </row>
-    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D429"/>
     </row>
-    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D430"/>
     </row>
-    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D431"/>
     </row>
-    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D432"/>
     </row>
-    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D433"/>
     </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D434"/>
     </row>
-    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D435"/>
     </row>
-    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D436"/>
     </row>
-    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D437"/>
     </row>
-    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D438"/>
     </row>
-    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D439"/>
     </row>
-    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D440"/>
     </row>
-    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D441"/>
     </row>
-    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D442"/>
     </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D443"/>
     </row>
-    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D444"/>
     </row>
-    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D445"/>
     </row>
-    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D446"/>
     </row>
-    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D447"/>
     </row>
-    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D448"/>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D449"/>
     </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D450"/>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D451"/>
     </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D452"/>
     </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D453"/>
     </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D454"/>
     </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D455"/>
     </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D456"/>
     </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D457"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D458"/>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D459"/>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D460"/>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D461"/>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D462"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D463"/>
     </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D464"/>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D465"/>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D466"/>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D467"/>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D468"/>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D469"/>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D470"/>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D471"/>
     </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D472"/>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D473"/>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D474"/>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D475"/>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D476"/>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D477"/>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D478"/>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D479"/>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D480"/>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D481"/>
     </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D482"/>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D483"/>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D484"/>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D485"/>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D486"/>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D487"/>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D488"/>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D489"/>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D490"/>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D491"/>
     </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D492"/>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D493"/>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D494"/>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D495"/>
     </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D496"/>
     </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D497"/>
     </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D498"/>
     </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D499"/>
     </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D500"/>
     </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D501"/>
     </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D502"/>
     </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D503"/>
     </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D504"/>
     </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D505"/>
     </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D506"/>
     </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D507"/>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D508"/>
     </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D509"/>
     </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D510"/>
     </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D511"/>
     </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D512"/>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D513"/>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D514"/>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D515"/>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D516"/>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D517"/>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D518"/>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D519"/>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D520"/>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D521"/>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D522"/>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D523"/>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D524"/>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D525"/>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D526"/>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D527"/>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D528"/>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D529"/>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D530"/>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D531"/>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D532"/>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D533"/>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D534"/>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D535"/>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D536"/>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D537"/>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D538"/>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D539"/>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D540"/>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D541"/>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D542"/>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D543"/>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D544"/>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D545"/>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D546"/>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D547"/>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D548"/>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D549"/>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D550"/>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D551"/>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D552"/>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D553"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D554"/>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D555"/>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D556"/>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D557"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D558"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D559"/>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D560"/>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D561"/>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D562"/>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D563"/>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D564"/>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D565"/>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D566"/>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D567"/>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D568"/>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D569"/>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D570"/>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D571"/>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D572"/>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D573"/>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D574"/>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D575"/>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D576"/>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D577"/>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D578"/>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D579"/>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D580"/>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D581"/>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D582"/>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D583"/>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D584"/>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D585"/>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D586"/>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D587"/>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D588"/>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D589"/>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D590"/>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D591"/>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D592"/>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D593"/>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D594"/>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D595"/>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D596"/>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D597"/>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D598"/>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D599"/>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D600"/>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D601"/>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D602"/>
     </row>
-    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D603"/>
     </row>
-    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D604"/>
     </row>
-    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D605"/>
     </row>
-    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D606"/>
     </row>
-    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D607"/>
     </row>
-    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D608"/>
     </row>
-    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D609"/>
     </row>
-    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D610"/>
     </row>
-    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D611"/>
     </row>
-    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D612"/>
     </row>
-    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D613"/>
     </row>
-    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D614"/>
     </row>
-    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D615"/>
     </row>
-    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D616"/>
     </row>
-    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D617"/>
     </row>
-    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D618"/>
     </row>
-    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D619"/>
     </row>
-    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D620"/>
     </row>
-    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D621"/>
     </row>
-    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D622"/>
     </row>
-    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D623"/>
     </row>
-    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D624"/>
     </row>
-    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D625"/>
     </row>
-    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D626"/>
     </row>
-    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D627"/>
     </row>
-    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D628"/>
     </row>
-    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D629"/>
     </row>
-    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D630"/>
     </row>
-    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D631"/>
     </row>
-    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D632"/>
     </row>
-    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D633"/>
     </row>
-    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D634"/>
     </row>
-    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D635"/>
     </row>
-    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D636"/>
     </row>
-    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D637"/>
     </row>
-    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D638"/>
     </row>
-    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D639"/>
     </row>
-    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D640"/>
     </row>
-    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D641"/>
     </row>
-    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D642"/>
     </row>
-    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D643"/>
     </row>
-    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D644"/>
     </row>
-    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D645"/>
     </row>
-    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D646"/>
     </row>
-    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D647"/>
     </row>
-    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D648"/>
     </row>
-    <row r="649" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D649"/>
     </row>
-    <row r="650" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D650"/>
     </row>
-    <row r="651" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D651"/>
     </row>
-    <row r="652" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D652"/>
     </row>
-    <row r="653" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D653"/>
     </row>
-    <row r="654" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D654"/>
     </row>
-    <row r="655" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D655"/>
     </row>
-    <row r="656" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D656"/>
     </row>
-    <row r="657" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D657"/>
     </row>
-    <row r="658" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D658"/>
     </row>
-    <row r="659" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D659"/>
     </row>
-    <row r="660" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D660"/>
     </row>
-    <row r="661" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D661"/>
     </row>
-    <row r="662" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D662"/>
     </row>
-    <row r="663" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D663"/>
     </row>
-    <row r="664" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D664"/>
     </row>
-    <row r="665" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D665"/>
     </row>
-    <row r="666" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D666"/>
     </row>
-    <row r="667" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D667"/>
     </row>
-    <row r="668" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D668"/>
     </row>
-    <row r="669" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D669"/>
     </row>
-    <row r="670" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D670"/>
     </row>
-    <row r="671" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D671"/>
     </row>
-    <row r="672" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D672"/>
     </row>
-    <row r="673" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D673"/>
     </row>
-    <row r="674" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D674"/>
     </row>
-    <row r="675" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D675"/>
     </row>
-    <row r="676" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D676"/>
     </row>
-    <row r="677" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D677"/>
     </row>
-    <row r="678" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D678"/>
     </row>
-    <row r="679" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D679"/>
     </row>
-    <row r="680" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D680"/>
     </row>
-    <row r="681" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D681"/>
     </row>
-    <row r="682" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D682"/>
     </row>
-    <row r="683" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D683"/>
     </row>
-    <row r="684" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D684"/>
     </row>
-    <row r="685" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D685"/>
     </row>
-    <row r="686" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D686"/>
     </row>
-    <row r="687" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D687"/>
     </row>
-    <row r="688" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D688"/>
     </row>
-    <row r="689" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D689"/>
     </row>
-    <row r="690" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D690"/>
     </row>
-    <row r="691" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D691"/>
     </row>
-    <row r="692" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D692"/>
     </row>
-    <row r="693" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="693" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D693"/>
     </row>
-    <row r="694" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="694" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D694"/>
     </row>
-    <row r="695" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="695" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D695"/>
     </row>
-    <row r="696" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="696" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D696"/>
     </row>
-    <row r="697" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="697" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D697"/>
     </row>
-    <row r="698" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="698" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D698"/>
     </row>
-    <row r="699" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D699"/>
     </row>
-    <row r="700" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D700"/>
     </row>
-    <row r="701" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D701"/>
     </row>
-    <row r="702" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D702"/>
     </row>
-    <row r="703" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="703" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D703"/>
     </row>
-    <row r="704" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="704" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D704"/>
     </row>
-    <row r="705" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="705" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D705"/>
     </row>
-    <row r="706" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="706" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D706"/>
     </row>
-    <row r="707" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="707" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D707"/>
     </row>
-    <row r="708" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D708"/>
     </row>
-    <row r="709" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D709"/>
     </row>
-    <row r="710" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="710" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D710"/>
     </row>
-    <row r="711" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="711" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D711"/>
     </row>
-    <row r="712" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="712" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D712"/>
     </row>
-    <row r="713" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D713"/>
     </row>
-    <row r="714" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D714"/>
     </row>
-    <row r="715" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D715"/>
     </row>
-    <row r="716" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D716"/>
     </row>
-    <row r="717" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="717" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D717"/>
     </row>
-    <row r="718" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="718" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D718"/>
     </row>
-    <row r="719" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="719" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D719"/>
     </row>
-    <row r="720" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="720" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D720"/>
     </row>
-    <row r="721" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="721" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D721"/>
     </row>
-    <row r="722" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="722" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D722"/>
     </row>
-    <row r="723" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="723" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D723"/>
     </row>
-    <row r="724" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="724" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D724"/>
     </row>
-    <row r="725" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="725" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D725"/>
     </row>
-    <row r="726" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="726" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D726"/>
     </row>
-    <row r="727" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D727"/>
     </row>
-    <row r="728" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="728" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D728"/>
     </row>
-    <row r="729" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D729"/>
     </row>
-    <row r="730" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D730"/>
     </row>
-    <row r="731" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D731"/>
     </row>
-    <row r="732" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="732" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D732"/>
     </row>
-    <row r="733" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="733" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D733"/>
     </row>
-    <row r="734" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D734"/>
     </row>
-    <row r="735" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D735"/>
     </row>
-    <row r="736" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D736"/>
     </row>
-    <row r="737" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="737" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D737"/>
     </row>
-    <row r="738" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="738" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D738"/>
     </row>
-    <row r="739" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="739" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D739"/>
     </row>
-    <row r="740" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="740" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D740"/>
     </row>
-    <row r="741" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="741" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D741"/>
     </row>
-    <row r="742" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="742" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D742"/>
     </row>
-    <row r="743" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="743" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D743"/>
     </row>
-    <row r="744" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="744" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D744"/>
     </row>
-    <row r="745" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="745" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D745"/>
     </row>
-    <row r="746" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D746"/>
     </row>
-    <row r="747" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D747"/>
     </row>
-    <row r="748" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D748"/>
     </row>
-    <row r="749" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D749"/>
     </row>
-    <row r="750" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="750" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D750"/>
     </row>
-    <row r="751" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="751" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D751"/>
     </row>
-    <row r="752" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="752" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D752"/>
     </row>
-    <row r="753" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="753" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D753"/>
     </row>
-    <row r="754" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="754" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D754"/>
     </row>
-    <row r="755" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="755" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D755"/>
     </row>
-    <row r="756" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D756"/>
     </row>
-    <row r="757" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D757"/>
     </row>
-    <row r="758" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="758" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D758"/>
     </row>
-    <row r="759" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D759"/>
     </row>
-    <row r="760" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D760"/>
     </row>
-    <row r="761" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="761" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D761"/>
     </row>
-    <row r="762" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="762" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D762"/>
     </row>
-    <row r="763" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="763" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D763"/>
     </row>
-    <row r="764" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="764" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D764"/>
     </row>
-    <row r="765" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="765" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D765"/>
     </row>
-    <row r="766" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="766" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D766"/>
     </row>
-    <row r="767" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D767"/>
     </row>
-    <row r="768" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D768"/>
     </row>
-    <row r="769" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D769"/>
     </row>
-    <row r="770" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D770"/>
     </row>
-    <row r="771" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D771"/>
     </row>
-    <row r="772" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="772" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D772"/>
     </row>
-    <row r="773" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="773" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D773"/>
     </row>
-    <row r="774" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="774" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D774"/>
     </row>
-    <row r="775" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="775" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D775"/>
     </row>
-    <row r="776" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D776"/>
     </row>
-    <row r="777" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D777"/>
     </row>
-    <row r="778" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D778"/>
     </row>
-    <row r="779" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D779"/>
     </row>
-    <row r="780" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="780" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D780"/>
     </row>
-    <row r="781" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="781" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D781"/>
     </row>
-    <row r="782" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="782" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D782"/>
     </row>
-    <row r="783" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="783" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D783"/>
     </row>
-    <row r="784" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="784" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D784"/>
     </row>
-    <row r="785" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="785" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D785"/>
     </row>
-    <row r="786" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="786" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D786"/>
     </row>
-    <row r="787" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="787" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D787"/>
     </row>
-    <row r="788" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="788" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D788"/>
     </row>
-    <row r="789" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="789" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D789"/>
     </row>
-    <row r="790" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="790" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D790"/>
     </row>
-    <row r="791" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="791" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D791"/>
     </row>
-    <row r="792" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="792" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D792"/>
     </row>
-    <row r="793" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="793" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D793"/>
     </row>
-    <row r="794" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="794" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D794"/>
     </row>
-    <row r="795" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="795" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D795"/>
     </row>
-    <row r="796" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="796" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D796"/>
     </row>
-    <row r="797" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D797"/>
     </row>
-    <row r="798" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="798" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D798"/>
     </row>
-    <row r="799" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D799"/>
     </row>
   </sheetData>
@@ -3956,6 +4035,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
